--- a/biology/Botanique/Stephanopyxidaceae/Stephanopyxidaceae.xlsx
+++ b/biology/Botanique/Stephanopyxidaceae/Stephanopyxidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stephanopyxidaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stephanopyxales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Stephanopyxis, dérivé du grec στέφω / stépho, couronne, et πυξις / pyxis, boite.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre type a été décrit ainsi par Christian Ehrenberg en 1845 : 
-« Stephanopyxis diadema : Stephanopyxis à coquille hémisphérique, décorée d'une série de cellules parallèles droites, le disque central est déprimé et densément denticulé, cellules en 1/96'''13-14[note 1], présence de 30 denticules sur la couronne de l'organisme adulte. Diamètre -1/48'''[note 2]. Fossile à Hullis Cliff Virginie[1]. »
+« Stephanopyxis diadema : Stephanopyxis à coquille hémisphérique, décorée d'une série de cellules parallèles droites, le disque central est déprimé et densément denticulé, cellules en 1/96'''13-14[note 1], présence de 30 denticules sur la couronne de l'organisme adulte. Diamètre -1/48'''[note 2]. Fossile à Hullis Cliff Virginie. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Stephanopyxis est une diatomée marine planctonique cosmopolite. Il comprend un grand nombre d'espèces fossiles mais un petit nombre d'espèces vivantes. Ces dernières sont assez communes dans le plancton marin, surtout en zone tropicale mais peuvent être transportées dans les eaux plus froides par les courants [2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Stephanopyxis est une diatomée marine planctonique cosmopolite. Il comprend un grand nombre d'espèces fossiles mais un petit nombre d'espèces vivantes. Ces dernières sont assez communes dans le plancton marin, surtout en zone tropicale mais peuvent être transportées dans les eaux plus froides par les courants ,.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (26 juillet 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (26 juillet 2022) :
 Costopyxis Glezer, 1984
 Creswellia Arnott ex Greville, 1857
 Eupyxidicula S.Blanco &amp; C.E.Wetzel, 2016
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stephanopyxidaceae Nikolaev[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stephanopyxidaceae Nikolaev.
 </t>
         </is>
       </c>
